--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.31721</v>
+        <v>0.158418</v>
       </c>
       <c r="H2">
-        <v>264.95163</v>
+        <v>0.475254</v>
       </c>
       <c r="I2">
-        <v>0.9709320988649861</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="J2">
-        <v>0.970932098864986</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N2">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>7518.646510345321</v>
+        <v>0.0003610874279999999</v>
       </c>
       <c r="R2">
-        <v>67667.81859310789</v>
+        <v>0.003249786852</v>
       </c>
       <c r="S2">
-        <v>0.9709320988649861</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="T2">
-        <v>0.970932098864986</v>
+        <v>0.05652797120826585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>6.413473</v>
       </c>
       <c r="I3">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="J3">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N3">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>181.9978853900387</v>
+        <v>0.004872814263777777</v>
       </c>
       <c r="R3">
-        <v>1637.980968510348</v>
+        <v>0.043855328374</v>
       </c>
       <c r="S3">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="T3">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5062286666666665</v>
+        <v>0.5062286666666667</v>
       </c>
       <c r="H4">
         <v>1.518686</v>
       </c>
       <c r="I4">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="J4">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N4">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>43.09640666943733</v>
+        <v>0.001153863874222222</v>
       </c>
       <c r="R4">
-        <v>387.867660024936</v>
+        <v>0.010384774868</v>
       </c>
       <c r="S4">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="T4">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
     </row>
   </sheetData>
